--- a/Data/TMT List.xlsx
+++ b/Data/TMT List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D3623-B70C-0343-8685-FBA20C60E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4602DB-079A-F94C-B2BD-1DBB4B912532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
   <si>
     <t>Name</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Applied Materials</t>
   </si>
   <si>
-    <t>AT&amp;T</t>
-  </si>
-  <si>
     <t>Autodesk Inc.</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
     <t>AMAT</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>ADSK</t>
   </si>
   <si>
@@ -666,9 +660,6 @@
     <t>0000006951</t>
   </si>
   <si>
-    <t>0000732717</t>
-  </si>
-  <si>
     <t>0000769397</t>
   </si>
   <si>
@@ -916,6 +907,12 @@
   </si>
   <si>
     <t>ZM</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>CMST</t>
   </si>
 </sst>
 </file>
@@ -1319,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1344,10 +1341,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1358,10 +1355,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1372,10 +1369,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1386,10 +1383,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1400,10 +1397,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1428,10 +1425,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1442,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1456,10 +1453,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1470,10 +1467,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1484,10 +1481,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1498,10 +1495,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1512,10 +1509,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1526,1187 +1523,1185 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D70" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
-      </c>
-      <c r="D85" t="s">
-        <v>280</v>
+        <v>291</v>
+      </c>
+      <c r="D85" t="str">
+        <f>"0001585521"</f>
+        <v>0001585521</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>294</v>
-      </c>
-      <c r="D86" t="str">
-        <f>"0001585521"</f>
-        <v>0001585521</v>
+        <v>182</v>
+      </c>
+      <c r="D86" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D90" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>100</v>
-      </c>
       <c r="C99" t="s">
-        <v>196</v>
-      </c>
-      <c r="D99" t="s">
         <v>293</v>
+      </c>
+      <c r="D99" t="str">
+        <f>"0001166691"</f>
+        <v>0001166691</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT List.xlsx
+++ b/Data/TMT List.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4602DB-079A-F94C-B2BD-1DBB4B912532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78FFCED-E63B-AF47-B55F-E8B9B6CBA4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="320">
   <si>
     <t>Name</t>
   </si>
@@ -108,9 +97,6 @@
     <t>Dish Network</t>
   </si>
   <si>
-    <t>Dun &amp; Bradstreet Holdings</t>
-  </si>
-  <si>
     <t>Electronic Arts Inc.</t>
   </si>
   <si>
@@ -333,6 +319,36 @@
     <t>World Wresteling Entertainment</t>
   </si>
   <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>Stitch Fix</t>
+  </si>
+  <si>
+    <t>Chewy.com</t>
+  </si>
+  <si>
+    <t>Ringcentral</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>Carparts</t>
+  </si>
+  <si>
+    <t>DoorDash</t>
+  </si>
+  <si>
+    <t>Uber</t>
+  </si>
+  <si>
+    <t>Unity Software</t>
+  </si>
+  <si>
+    <t>Lyft</t>
+  </si>
+  <si>
     <t>ATEN</t>
   </si>
   <si>
@@ -399,9 +415,6 @@
     <t>DISH</t>
   </si>
   <si>
-    <t>DNB</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
@@ -579,6 +592,9 @@
     <t>AUD</t>
   </si>
   <si>
+    <t>ZM</t>
+  </si>
+  <si>
     <t>SIRI</t>
   </si>
   <si>
@@ -618,6 +634,36 @@
     <t>WWE</t>
   </si>
   <si>
+    <t>CMST</t>
+  </si>
+  <si>
+    <t>SFIX</t>
+  </si>
+  <si>
+    <t>CHWY</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>PRTS</t>
+  </si>
+  <si>
+    <t>DASH</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>LYFT</t>
+  </si>
+  <si>
     <t>0001580808</t>
   </si>
   <si>
@@ -684,9 +730,6 @@
     <t>0001001082</t>
   </si>
   <si>
-    <t>0001799208</t>
-  </si>
-  <si>
     <t>0000712515</t>
   </si>
   <si>
@@ -867,6 +910,9 @@
     <t>0001067837</t>
   </si>
   <si>
+    <t>0001585521</t>
+  </si>
+  <si>
     <t>0000908937</t>
   </si>
   <si>
@@ -906,13 +952,34 @@
     <t>0001091907</t>
   </si>
   <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>Comcast</t>
-  </si>
-  <si>
-    <t>CMST</t>
+    <t>0001166691</t>
+  </si>
+  <si>
+    <t>0001576942</t>
+  </si>
+  <si>
+    <t>0001766502</t>
+  </si>
+  <si>
+    <t>0001384905</t>
+  </si>
+  <si>
+    <t>0001370637</t>
+  </si>
+  <si>
+    <t>0001378950</t>
+  </si>
+  <si>
+    <t>0001792789</t>
+  </si>
+  <si>
+    <t>0001543151</t>
+  </si>
+  <si>
+    <t>0001810806</t>
+  </si>
+  <si>
+    <t>0001759509</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1341,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1355,10 +1422,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1369,10 +1436,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1383,10 +1450,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,10 +1478,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1425,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,10 +1520,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,10 +1548,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,10 +1562,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,10 +1576,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,122 +1590,122 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,10 +1716,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,10 +1730,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,10 +1744,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,10 +1758,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1705,10 +1772,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,10 +1800,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,10 +1814,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,10 +1828,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,10 +1856,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,10 +1870,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,10 +1884,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,10 +1898,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,10 +1912,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,10 +1926,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,10 +1940,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,10 +1954,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,10 +1968,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,10 +1982,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,10 +1996,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,10 +2010,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,10 +2024,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,10 +2038,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,10 +2052,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1999,10 +2066,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,10 +2080,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,10 +2094,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,10 +2108,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,10 +2122,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,10 +2136,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,10 +2150,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,10 +2164,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2111,10 +2178,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2125,10 +2192,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2139,10 +2206,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,10 +2220,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,10 +2234,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2181,10 +2248,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2195,10 +2262,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,10 +2276,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,10 +2290,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2237,10 +2304,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2251,10 +2318,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,10 +2332,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2279,10 +2346,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,10 +2360,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,10 +2374,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,10 +2388,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2335,10 +2402,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2349,10 +2416,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,10 +2430,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,10 +2444,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,10 +2458,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,10 +2472,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,10 +2486,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,10 +2500,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,10 +2514,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,10 +2528,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,10 +2542,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,10 +2556,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,11 +2570,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
-      </c>
-      <c r="D85" t="str">
-        <f>"0001585521"</f>
-        <v>0001585521</v>
+        <v>191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2518,10 +2584,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,10 +2598,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,10 +2612,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2560,10 +2626,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,10 +2640,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2588,10 +2654,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2602,10 +2668,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2616,10 +2682,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2630,10 +2696,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2644,10 +2710,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2658,50 +2724,164 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D98" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
-      </c>
-      <c r="D99" t="str">
-        <f>"0001166691"</f>
-        <v>0001166691</v>
+        <v>205</v>
+      </c>
+      <c r="D99" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT List.xlsx
+++ b/Data/TMT List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78FFCED-E63B-AF47-B55F-E8B9B6CBA4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3988CAC5-D0E8-8A41-B9DF-5FF359A9F7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1383,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/TMT List.xlsx
+++ b/Data/TMT List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3988CAC5-D0E8-8A41-B9DF-5FF359A9F7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E0CC2E-2751-D34F-8263-6240DCF96C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,9 +634,6 @@
     <t>WWE</t>
   </si>
   <si>
-    <t>CMST</t>
-  </si>
-  <si>
     <t>SFIX</t>
   </si>
   <si>
@@ -980,6 +977,9 @@
   </si>
   <si>
     <t>0001759509</t>
+  </si>
+  <si>
+    <t>CMCSA</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1384,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1411,7 @@
         <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1425,7 +1425,7 @@
         <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1467,7 +1467,7 @@
         <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,7 +1481,7 @@
         <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,7 +1495,7 @@
         <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
         <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>118</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,7 +1565,7 @@
         <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1579,7 @@
         <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,7 +1621,7 @@
         <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1635,7 +1635,7 @@
         <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
         <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1677,7 +1677,7 @@
         <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1719,7 +1719,7 @@
         <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>133</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,7 +1761,7 @@
         <v>134</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1775,7 +1775,7 @@
         <v>135</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1789,7 +1789,7 @@
         <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,7 +1831,7 @@
         <v>139</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
         <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,7 +1873,7 @@
         <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,7 +1887,7 @@
         <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,7 +1901,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,7 +1915,7 @@
         <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1929,7 +1929,7 @@
         <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,7 +1943,7 @@
         <v>146</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>147</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1971,7 +1971,7 @@
         <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,7 +1985,7 @@
         <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2041,7 +2041,7 @@
         <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2055,7 +2055,7 @@
         <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,7 +2069,7 @@
         <v>155</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,7 +2083,7 @@
         <v>156</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2097,7 +2097,7 @@
         <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2111,7 +2111,7 @@
         <v>158</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2125,7 +2125,7 @@
         <v>159</v>
       </c>
       <c r="D53" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2139,7 +2139,7 @@
         <v>160</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,7 +2153,7 @@
         <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2167,7 +2167,7 @@
         <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2181,7 +2181,7 @@
         <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2195,7 +2195,7 @@
         <v>164</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>166</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2237,7 +2237,7 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>168</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2279,7 +2279,7 @@
         <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2293,7 +2293,7 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2307,7 +2307,7 @@
         <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
         <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2335,7 +2335,7 @@
         <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2349,7 +2349,7 @@
         <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,7 +2363,7 @@
         <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2377,7 +2377,7 @@
         <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
         <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2419,7 +2419,7 @@
         <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2433,7 +2433,7 @@
         <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
         <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2475,7 +2475,7 @@
         <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2489,7 +2489,7 @@
         <v>185</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2503,7 +2503,7 @@
         <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
         <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
         <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2559,7 +2559,7 @@
         <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2573,7 +2573,7 @@
         <v>191</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2587,7 +2587,7 @@
         <v>192</v>
       </c>
       <c r="D86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>193</v>
       </c>
       <c r="D87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,7 +2615,7 @@
         <v>194</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2629,7 +2629,7 @@
         <v>195</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2643,7 +2643,7 @@
         <v>196</v>
       </c>
       <c r="D90" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2657,7 +2657,7 @@
         <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2671,7 +2671,7 @@
         <v>198</v>
       </c>
       <c r="D92" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>199</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2699,7 +2699,7 @@
         <v>200</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2713,7 +2713,7 @@
         <v>201</v>
       </c>
       <c r="D95" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2727,7 +2727,7 @@
         <v>202</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2741,7 +2741,7 @@
         <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2752,10 +2752,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="D98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2766,10 +2766,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2780,10 +2780,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2794,10 +2794,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D101" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2808,10 +2808,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D102" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2822,10 +2822,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D103" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2836,10 +2836,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2850,10 +2850,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2864,10 +2864,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2878,10 +2878,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT List.xlsx
+++ b/Data/TMT List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E0CC2E-2751-D34F-8263-6240DCF96C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7764CD-5ED5-3B48-8C91-C5A243BE8CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="317">
   <si>
     <t>Name</t>
   </si>
@@ -295,9 +295,6 @@
     <t>iRobot</t>
   </si>
   <si>
-    <t>Palantair</t>
-  </si>
-  <si>
     <t>Roku</t>
   </si>
   <si>
@@ -610,9 +607,6 @@
     <t>IRBT</t>
   </si>
   <si>
-    <t>PLTR</t>
-  </si>
-  <si>
     <t>ROKU</t>
   </si>
   <si>
@@ -923,9 +917,6 @@
   </si>
   <si>
     <t>0001159167</t>
-  </si>
-  <si>
-    <t>0001321655</t>
   </si>
   <si>
     <t>0001428439</t>
@@ -1381,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="C90" sqref="A90:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1408,10 +1399,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1422,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1436,10 +1427,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1450,10 +1441,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1464,10 +1455,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1478,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1492,10 +1483,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1506,10 +1497,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1520,10 +1511,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1534,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1548,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,10 +1553,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1576,10 +1567,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1590,10 +1581,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,10 +1595,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1618,10 +1609,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1632,10 +1623,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1646,10 +1637,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1660,10 +1651,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1674,10 +1665,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1688,10 +1679,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1702,10 +1693,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1716,10 +1707,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1730,10 +1721,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1744,10 +1735,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1758,10 +1749,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,10 +1763,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1786,10 +1777,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1800,10 +1791,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1814,10 +1805,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,10 +1819,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,10 +1833,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,10 +1847,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1870,10 +1861,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,10 +1875,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,7 +1892,7 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1912,10 +1903,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1926,10 +1917,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1940,10 +1931,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,10 +1945,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1968,10 +1959,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D42" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1982,10 +1973,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1996,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2010,10 +2001,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2024,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2038,10 +2029,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,10 +2043,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2066,10 +2057,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2080,10 +2071,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,10 +2085,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,10 +2099,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,10 +2113,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,10 +2127,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,10 +2141,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,10 +2155,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,10 +2169,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2192,10 +2183,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,10 +2197,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2220,10 +2211,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,10 +2225,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2248,10 +2239,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2262,10 +2253,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2276,10 +2267,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2290,10 +2281,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2304,10 +2295,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,10 +2309,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2332,10 +2323,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2346,10 +2337,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2360,10 +2351,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2374,10 +2365,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2388,10 +2379,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2402,10 +2393,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2416,10 +2407,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2430,10 +2421,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,10 +2435,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2458,10 +2449,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2472,10 +2463,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2486,10 +2477,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2500,10 +2491,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2514,10 +2505,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2528,10 +2519,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2542,10 +2533,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2556,10 +2547,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2570,10 +2561,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,10 +2575,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2598,10 +2589,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2612,10 +2603,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2626,262 +2617,248 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D89" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D96" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="D97" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>202</v>
       </c>
       <c r="D98" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D100" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D101" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D102" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D104" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D105" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" t="s">
-        <v>212</v>
-      </c>
-      <c r="D107" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/Data/TMT List.xlsx
+++ b/Data/TMT List.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/george/Dropbox/Mac/Desktop/Projects/Capstone/Langague-Analysis/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7764CD-5ED5-3B48-8C91-C5A243BE8CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="455">
   <si>
     <t>Name</t>
   </si>
@@ -346,6 +340,144 @@
     <t>Lyft</t>
   </si>
   <si>
+    <t>Purple Innovation</t>
+  </si>
+  <si>
+    <t>Lovesac Co.</t>
+  </si>
+  <si>
+    <t>Carmax</t>
+  </si>
+  <si>
+    <t>Office Depot</t>
+  </si>
+  <si>
+    <t>NY Times</t>
+  </si>
+  <si>
+    <t>Rocket Companies</t>
+  </si>
+  <si>
+    <t>Workhorse Group</t>
+  </si>
+  <si>
+    <t>DraftKings</t>
+  </si>
+  <si>
+    <t>American Tower</t>
+  </si>
+  <si>
+    <t>CenturyLink</t>
+  </si>
+  <si>
+    <t>Frontier Communications</t>
+  </si>
+  <si>
+    <t>Corsair Gaming</t>
+  </si>
+  <si>
+    <t>Cogent Communications</t>
+  </si>
+  <si>
+    <t>Consolidated Communications Holdings</t>
+  </si>
+  <si>
+    <t>Calix</t>
+  </si>
+  <si>
+    <t>IDT Corp</t>
+  </si>
+  <si>
+    <t>Shutterstock</t>
+  </si>
+  <si>
+    <t>E.W. Scripps</t>
+  </si>
+  <si>
+    <t>Cumulus Media</t>
+  </si>
+  <si>
+    <t>News Corp</t>
+  </si>
+  <si>
+    <t>Townsquare Media</t>
+  </si>
+  <si>
+    <t>Saga Communications</t>
+  </si>
+  <si>
+    <t>Yelp</t>
+  </si>
+  <si>
+    <t>2U Inc</t>
+  </si>
+  <si>
+    <t>Snap Inc</t>
+  </si>
+  <si>
+    <t>Groupon</t>
+  </si>
+  <si>
+    <t>Dropbox</t>
+  </si>
+  <si>
+    <t>Paylocity Holdings</t>
+  </si>
+  <si>
+    <t>Box Inc</t>
+  </si>
+  <si>
+    <t>CyrusOne</t>
+  </si>
+  <si>
+    <t>CoreSite Realty</t>
+  </si>
+  <si>
+    <t>LendingTree</t>
+  </si>
+  <si>
+    <t>LendingClub</t>
+  </si>
+  <si>
+    <t>Envestnet</t>
+  </si>
+  <si>
+    <t>Fiserv</t>
+  </si>
+  <si>
+    <t>Scientific Games Corp</t>
+  </si>
+  <si>
+    <t>Telephone &amp; Data Systems, Inc</t>
+  </si>
+  <si>
+    <t>US Cellular Corp</t>
+  </si>
+  <si>
+    <t>Shenandoah Telecom</t>
+  </si>
+  <si>
+    <t>MicroStrategy</t>
+  </si>
+  <si>
+    <t>Wayfair</t>
+  </si>
+  <si>
+    <t>Overstock.com</t>
+  </si>
+  <si>
+    <t>Mercadolibre</t>
+  </si>
+  <si>
+    <t>Carvana</t>
+  </si>
+  <si>
+    <t>Microvision, Inc</t>
+  </si>
+  <si>
+    <t>SPS Commerce</t>
+  </si>
+  <si>
     <t>ATEN</t>
   </si>
   <si>
@@ -628,6 +760,9 @@
     <t>WWE</t>
   </si>
   <si>
+    <t>CMCSA</t>
+  </si>
+  <si>
     <t>SFIX</t>
   </si>
   <si>
@@ -655,6 +790,144 @@
     <t>LYFT</t>
   </si>
   <si>
+    <t>PRPL</t>
+  </si>
+  <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>KMX</t>
+  </si>
+  <si>
+    <t>ODP</t>
+  </si>
+  <si>
+    <t>NYT</t>
+  </si>
+  <si>
+    <t>RKT</t>
+  </si>
+  <si>
+    <t>WKHS</t>
+  </si>
+  <si>
+    <t>DKNG</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>LUMN</t>
+  </si>
+  <si>
+    <t>FYBR</t>
+  </si>
+  <si>
+    <t>CRSR</t>
+  </si>
+  <si>
+    <t>CCOI</t>
+  </si>
+  <si>
+    <t>CNSL</t>
+  </si>
+  <si>
+    <t>CALX</t>
+  </si>
+  <si>
+    <t>IDT</t>
+  </si>
+  <si>
+    <t>SSTK</t>
+  </si>
+  <si>
+    <t>SSP</t>
+  </si>
+  <si>
+    <t>CMLS</t>
+  </si>
+  <si>
+    <t>NWSA</t>
+  </si>
+  <si>
+    <t>TSQ</t>
+  </si>
+  <si>
+    <t>SGA</t>
+  </si>
+  <si>
+    <t>YELP</t>
+  </si>
+  <si>
+    <t>TWOU</t>
+  </si>
+  <si>
+    <t>SNAP</t>
+  </si>
+  <si>
+    <t>GRPN</t>
+  </si>
+  <si>
+    <t>DBX</t>
+  </si>
+  <si>
+    <t>PCTY</t>
+  </si>
+  <si>
+    <t>BOX</t>
+  </si>
+  <si>
+    <t>CONE</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>TREE</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>FISV</t>
+  </si>
+  <si>
+    <t>SGMS</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>SHEN</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>OSTK</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>CVNA</t>
+  </si>
+  <si>
+    <t>MVIS</t>
+  </si>
+  <si>
+    <t>SPSC</t>
+  </si>
+  <si>
     <t>0001580808</t>
   </si>
   <si>
@@ -970,14 +1243,149 @@
     <t>0001759509</t>
   </si>
   <si>
-    <t>CMCSA</t>
+    <t>0001643953</t>
+  </si>
+  <si>
+    <t>0001701758</t>
+  </si>
+  <si>
+    <t>0001170010</t>
+  </si>
+  <si>
+    <t>0000800240</t>
+  </si>
+  <si>
+    <t>0000071691</t>
+  </si>
+  <si>
+    <t>0001805284</t>
+  </si>
+  <si>
+    <t>0001425287</t>
+  </si>
+  <si>
+    <t>0001772757</t>
+  </si>
+  <si>
+    <t>0001053507</t>
+  </si>
+  <si>
+    <t>0000018926</t>
+  </si>
+  <si>
+    <t>0000020520</t>
+  </si>
+  <si>
+    <t>0001743759</t>
+  </si>
+  <si>
+    <t>0001158324</t>
+  </si>
+  <si>
+    <t>0001304421</t>
+  </si>
+  <si>
+    <t>0001406666</t>
+  </si>
+  <si>
+    <t>0001005731</t>
+  </si>
+  <si>
+    <t>0001549346</t>
+  </si>
+  <si>
+    <t>0000832428</t>
+  </si>
+  <si>
+    <t>0001058623</t>
+  </si>
+  <si>
+    <t>0001564708</t>
+  </si>
+  <si>
+    <t>0001499832</t>
+  </si>
+  <si>
+    <t>0000886136</t>
+  </si>
+  <si>
+    <t>0001345016</t>
+  </si>
+  <si>
+    <t>0001459417</t>
+  </si>
+  <si>
+    <t>0001564408</t>
+  </si>
+  <si>
+    <t>0001490281</t>
+  </si>
+  <si>
+    <t>0001467623</t>
+  </si>
+  <si>
+    <t>0001591698</t>
+  </si>
+  <si>
+    <t>0001372612</t>
+  </si>
+  <si>
+    <t>0001553023</t>
+  </si>
+  <si>
+    <t>0001490892</t>
+  </si>
+  <si>
+    <t>0001434621</t>
+  </si>
+  <si>
+    <t>0001409970</t>
+  </si>
+  <si>
+    <t>0001337619</t>
+  </si>
+  <si>
+    <t>0000798354</t>
+  </si>
+  <si>
+    <t>0000750004</t>
+  </si>
+  <si>
+    <t>0001051512</t>
+  </si>
+  <si>
+    <t>0000821130</t>
+  </si>
+  <si>
+    <t>0000354963</t>
+  </si>
+  <si>
+    <t>0001050446</t>
+  </si>
+  <si>
+    <t>0001616707</t>
+  </si>
+  <si>
+    <t>0001130713</t>
+  </si>
+  <si>
+    <t>0001099590</t>
+  </si>
+  <si>
+    <t>0001690820</t>
+  </si>
+  <si>
+    <t>0000065770</t>
+  </si>
+  <si>
+    <t>0001092699</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,14 +1448,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1094,7 +1494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1126,27 +1526,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1178,24 +1560,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1371,16 +1735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C90" sqref="A90:XFD90"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1399,13 +1761,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1413,13 +1775,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1427,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1441,13 +1803,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1455,13 +1817,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1469,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1483,13 +1845,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1497,13 +1859,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1511,13 +1873,13 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1525,13 +1887,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1539,13 +1901,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1553,13 +1915,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1567,13 +1929,13 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1581,13 +1943,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1595,13 +1957,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1609,13 +1971,13 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1623,13 +1985,13 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1637,13 +1999,13 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1651,13 +2013,13 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1665,13 +2027,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1679,13 +2041,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1693,197 +2055,197 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -1892,973 +2254,1617 @@
         <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="D56" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D66" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="D82" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="D93" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="D97" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="D98" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D102" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D103" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="D104" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="D105" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="D106" t="s">
-        <v>315</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>258</v>
+      </c>
+      <c r="D107" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>261</v>
+      </c>
+      <c r="D110" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>264</v>
+      </c>
+      <c r="D113" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>265</v>
+      </c>
+      <c r="D114" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>266</v>
+      </c>
+      <c r="D115" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>268</v>
+      </c>
+      <c r="D117" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>270</v>
+      </c>
+      <c r="D119" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>274</v>
+      </c>
+      <c r="D123" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>276</v>
+      </c>
+      <c r="D125" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>277</v>
+      </c>
+      <c r="D126" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" t="s">
+        <v>278</v>
+      </c>
+      <c r="D127" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128" t="s">
+        <v>279</v>
+      </c>
+      <c r="D128" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>280</v>
+      </c>
+      <c r="D129" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" t="s">
+        <v>281</v>
+      </c>
+      <c r="D130" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" t="s">
+        <v>282</v>
+      </c>
+      <c r="D131" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s">
+        <v>283</v>
+      </c>
+      <c r="D132" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" t="s">
+        <v>284</v>
+      </c>
+      <c r="D133" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134" t="s">
+        <v>285</v>
+      </c>
+      <c r="D134" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135" t="s">
+        <v>286</v>
+      </c>
+      <c r="D135" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" t="s">
+        <v>287</v>
+      </c>
+      <c r="D136" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137" t="s">
+        <v>288</v>
+      </c>
+      <c r="D137" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" t="s">
+        <v>289</v>
+      </c>
+      <c r="D138" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>290</v>
+      </c>
+      <c r="D139" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="s">
+        <v>291</v>
+      </c>
+      <c r="D140" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" t="s">
+        <v>292</v>
+      </c>
+      <c r="D141" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
+        <v>293</v>
+      </c>
+      <c r="D142" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143" t="s">
+        <v>294</v>
+      </c>
+      <c r="D143" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144" t="s">
+        <v>295</v>
+      </c>
+      <c r="D144" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" t="s">
+        <v>296</v>
+      </c>
+      <c r="D145" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147" t="s">
+        <v>298</v>
+      </c>
+      <c r="D147" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" t="s">
+        <v>299</v>
+      </c>
+      <c r="D148" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" t="s">
+        <v>300</v>
+      </c>
+      <c r="D149" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" t="s">
+        <v>301</v>
+      </c>
+      <c r="D150" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" t="s">
+        <v>302</v>
+      </c>
+      <c r="D151" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
+        <v>303</v>
+      </c>
+      <c r="D152" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
